--- a/test-main/src/main/resources/rule9/验证数据.xlsx
+++ b/test-main/src/main/resources/rule9/验证数据.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -40,10 +40,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>triggered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEPOSIT</t>
   </si>
   <si>
@@ -66,6 +62,9 @@
   <si>
     <t>dataDisposeSehedule</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POC0009</t>
   </si>
 </sst>
 </file>
@@ -441,7 +440,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -483,28 +482,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule9/验证数据.xlsx
+++ b/test-main/src/main/resources/rule9/验证数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -52,19 +52,24 @@
     <t>988888888888</t>
   </si>
   <si>
-    <t>2016-06-8 09:05:16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>successed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dataDisposeSehedule</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POC0009</t>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
+  </si>
+  <si>
+    <t>2016-06-08 09:05:16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,7 +459,7 @@
     <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +479,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,13 +505,16 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test-main/src/main/resources/rule9/验证数据.xlsx
+++ b/test-main/src/main/resources/rule9/验证数据.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A3" sqref="A3:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/test-main/src/main/resources/rule9/验证数据.xlsx
+++ b/test-main/src/main/resources/rule9/验证数据.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
